--- a/src/test/java/Resources/TestData/Registration.xlsx
+++ b/src/test/java/Resources/TestData/Registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>email</t>
   </si>
@@ -102,36 +102,6 @@
     <t>EMP0005</t>
   </si>
   <si>
-    <t>EMP0006</t>
-  </si>
-  <si>
-    <t>EMP0007</t>
-  </si>
-  <si>
-    <t>EMP0008</t>
-  </si>
-  <si>
-    <t>EMP0009</t>
-  </si>
-  <si>
-    <t>alessandro.sporer@hotmail.com</t>
-  </si>
-  <si>
-    <t>waino_beier83@yahoo.com</t>
-  </si>
-  <si>
-    <t>elmer.rutherford83@hotmail.com</t>
-  </si>
-  <si>
-    <t>emiliano54@hotmail.com</t>
-  </si>
-  <si>
-    <t>bulah4@hotmail.com</t>
-  </si>
-  <si>
-    <t>alycia97@yahoo.com</t>
-  </si>
-  <si>
     <t>Nakia</t>
   </si>
   <si>
@@ -162,30 +132,6 @@
     <t>Beier</t>
   </si>
   <si>
-    <t xml:space="preserve">Elmer </t>
-  </si>
-  <si>
-    <t>Rutherford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emiliano </t>
-  </si>
-  <si>
-    <t>Krajcik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulah </t>
-  </si>
-  <si>
-    <t>Homenick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alycia </t>
-  </si>
-  <si>
-    <t>Skiles</t>
-  </si>
-  <si>
     <t>Confirm_Email</t>
   </si>
   <si>
@@ -201,22 +147,40 @@
     <t>IT Department</t>
   </si>
   <si>
-    <t>gretchen1@hotmail.com</t>
-  </si>
-  <si>
-    <t>chloe_volkman077@hotmail.com</t>
-  </si>
-  <si>
-    <t>nakia_miller0001@gmail.com</t>
+    <t>8855223320</t>
+  </si>
+  <si>
+    <t>8855223321</t>
+  </si>
+  <si>
+    <t>8855223322</t>
+  </si>
+  <si>
+    <t>8855223323</t>
+  </si>
+  <si>
+    <t>8855223324</t>
+  </si>
+  <si>
+    <t>nakia_miller11@gmail.com</t>
+  </si>
+  <si>
+    <t>nakia_miller22@gmail.com</t>
+  </si>
+  <si>
+    <t>nakia_miller33@gmail.com</t>
+  </si>
+  <si>
+    <t>nakia_miller44@gmail.com</t>
+  </si>
+  <si>
+    <t>nakia_miller55@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -257,9 +221,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
@@ -557,609 +520,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="11" width="37.28515625" style="2"/>
-    <col min="12" max="12" width="29.7109375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="37.28515625" style="2"/>
+    <col min="1" max="11" width="37.28515625" style="1"/>
+    <col min="12" max="12" width="29.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="37.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>300</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2">
-        <v>300</v>
-      </c>
-      <c r="J2" s="2">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1">
-        <v>7474112210</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>12345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>300</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>300</v>
-      </c>
-      <c r="J3" s="2">
-        <v>3</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1">
-        <v>7474112202</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>12345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>300</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>300</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="1">
-        <v>7474112203</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>12345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
         <v>300</v>
       </c>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="1">
-        <v>7474112204</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="L5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>12345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>300</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>300</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="1">
-        <v>7474112205</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="M6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="2">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>300</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="1">
-        <v>7474112206</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="2">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>300</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="1">
-        <v>7474112207</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="2">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2">
-        <v>300</v>
-      </c>
-      <c r="J9" s="2">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="1">
-        <v>7474112208</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="2">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>300</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="1">
-        <v>7474112209</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="T6" s="1">
         <v>12345</v>
       </c>
     </row>
@@ -1171,27 +898,25 @@
     <hyperlink ref="E4" r:id="rId4"/>
     <hyperlink ref="E5" r:id="rId5"/>
     <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E8" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="E10" r:id="rId10"/>
-    <hyperlink ref="F3" r:id="rId11"/>
-    <hyperlink ref="F4" r:id="rId12"/>
-    <hyperlink ref="F5" r:id="rId13"/>
-    <hyperlink ref="F6" r:id="rId14"/>
-    <hyperlink ref="F7" r:id="rId15"/>
-    <hyperlink ref="F8" r:id="rId16"/>
-    <hyperlink ref="F9" r:id="rId17"/>
-    <hyperlink ref="F10" r:id="rId18"/>
-    <hyperlink ref="A3" r:id="rId19"/>
-    <hyperlink ref="A4" r:id="rId20"/>
-    <hyperlink ref="A2" r:id="rId21"/>
-    <hyperlink ref="B3" r:id="rId22"/>
-    <hyperlink ref="B4" r:id="rId23"/>
-    <hyperlink ref="B2" r:id="rId24"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="F4" r:id="rId8"/>
+    <hyperlink ref="F5" r:id="rId9"/>
+    <hyperlink ref="F6" r:id="rId10"/>
+    <hyperlink ref="A2" r:id="rId11"/>
+    <hyperlink ref="A3:A6" r:id="rId12" display="nakia_miller1@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId13"/>
+    <hyperlink ref="A4" r:id="rId14"/>
+    <hyperlink ref="A5" r:id="rId15"/>
+    <hyperlink ref="A6" r:id="rId16"/>
+    <hyperlink ref="B2" r:id="rId17"/>
+    <hyperlink ref="B3:B6" r:id="rId18" display="nakia_miller1@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId19"/>
+    <hyperlink ref="B4" r:id="rId20"/>
+    <hyperlink ref="B5" r:id="rId21"/>
+    <hyperlink ref="B6" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
